--- a/tabular/epv-digs/epv-side-data.xlsx
+++ b/tabular/epv-digs/epv-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/epv-digs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1536F415-4B75-3B4B-BAB4-BE7C4FB90C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5550C1A3-14AC-DA41-A803-56CA56146801}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17560" yWindow="2220" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7028,8 +7028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="C431" sqref="C431"/>
+    <sheetView tabSelected="1" topLeftCell="K404" workbookViewId="0">
+      <selection activeCell="T423" sqref="A1:T423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
